--- a/src/main/resources/resources/DataEngine.xlsx
+++ b/src/main/resources/resources/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="3690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <definedName name="Page_Name">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -119,15 +120,6 @@
     <t>NewEmail_Id</t>
   </si>
   <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>testt</t>
-  </si>
-  <si>
-    <t>testy</t>
-  </si>
-  <si>
     <t>Birth_Day</t>
   </si>
   <si>
@@ -137,73 +129,28 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1992</t>
   </si>
   <si>
     <t>1993</t>
   </si>
   <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
     <t>20360</t>
   </si>
   <si>
     <t>20361</t>
   </si>
   <si>
-    <t>20362</t>
-  </si>
-  <si>
-    <t>20363</t>
-  </si>
-  <si>
-    <t>20364</t>
-  </si>
-  <si>
     <t>7894561478</t>
   </si>
   <si>
     <t>7894561479</t>
   </si>
   <si>
-    <t>7894561480</t>
-  </si>
-  <si>
-    <t>7894561481</t>
-  </si>
-  <si>
-    <t>7894561482</t>
-  </si>
-  <si>
-    <t>N6@new.com</t>
-  </si>
-  <si>
-    <t>N7@new.com</t>
-  </si>
-  <si>
-    <t>N8@new.com</t>
-  </si>
-  <si>
-    <t>N9@new.com</t>
-  </si>
-  <si>
-    <t>N10@new.com</t>
+    <t>N23@new.com</t>
+  </si>
+  <si>
+    <t>N22@new.com</t>
   </si>
 </sst>
 </file>
@@ -266,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,7 +239,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -635,13 +581,13 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
@@ -678,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>12</v>
@@ -712,8 +658,8 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>56</v>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
@@ -728,13 +674,13 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>26</v>
@@ -746,13 +692,13 @@
         <v>28</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>30</v>
@@ -762,8 +708,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>57</v>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
@@ -778,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>26</v>
@@ -796,177 +742,78 @@
         <v>28</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>30</v>
-      </c>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>30</v>
-      </c>
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>30</v>
-      </c>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>INDIRECT(E2)</formula1>
     </dataValidation>
   </dataValidations>
